--- a/back-end/Web Dinamico 2/MRVMinem/bin/Documentos/2.1 Plantilla Coccion limpia_vales_fise.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/bin/Documentos/2.1 Plantilla Coccion limpia_vales_fise.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Web Dinamico 2\MRVMinem\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Downloads\Para MASIVOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46DEB00-8E03-4000-9297-26FA069202CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BE20B3-010B-406C-970D-CBA3C7E86B25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{F56E1F52-1E14-4181-8712-FB887E55F8AC}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>Año</t>
   </si>
@@ -485,7 +485,7 @@
   <dimension ref="A1:D311"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,7 +527,7 @@
         <v>2012</v>
       </c>
       <c r="B3" s="8">
-        <f>VLOOKUP(C3,Tabla_Region,2,)</f>
+        <f t="shared" ref="B3:B66" si="0">VLOOKUP(C3,Tabla_Region,2,)</f>
         <v>1</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -542,7 +542,7 @@
         <v>2012</v>
       </c>
       <c r="B4" s="8">
-        <f>VLOOKUP(C4,Tabla_Region,2,)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -553,27 +553,39 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8" t="e">
-        <f>VLOOKUP(C5,Tabla_Region,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
+      <c r="A5" s="8">
+        <v>2013</v>
+      </c>
+      <c r="B5" s="8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="9">
+        <v>4533</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8" t="e">
-        <f>VLOOKUP(C6,Tabla_Region,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
+      <c r="A6" s="8">
+        <v>2013</v>
+      </c>
+      <c r="B6" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="9">
+        <v>5654</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="8" t="e">
-        <f>VLOOKUP(C7,Tabla_Region,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C7" s="8"/>
@@ -582,7 +594,7 @@
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="8" t="e">
-        <f>VLOOKUP(C8,Tabla_Region,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C8" s="8"/>
@@ -591,7 +603,7 @@
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="8" t="e">
-        <f>VLOOKUP(C9,Tabla_Region,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C9" s="8"/>
@@ -600,7 +612,7 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="8" t="e">
-        <f>VLOOKUP(C10,Tabla_Region,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C10" s="8"/>
@@ -609,7 +621,7 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="8" t="e">
-        <f>VLOOKUP(C11,Tabla_Region,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C11" s="8"/>
@@ -618,7 +630,7 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="8" t="e">
-        <f>VLOOKUP(C12,Tabla_Region,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C12" s="8"/>
@@ -627,7 +639,7 @@
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="8" t="e">
-        <f>VLOOKUP(C13,Tabla_Region,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C13" s="8"/>
@@ -636,7 +648,7 @@
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="8" t="e">
-        <f>VLOOKUP(C14,Tabla_Region,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C14" s="8"/>
@@ -645,7 +657,7 @@
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="8" t="e">
-        <f>VLOOKUP(C15,Tabla_Region,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C15" s="8"/>
@@ -654,7 +666,7 @@
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="8" t="e">
-        <f>VLOOKUP(C16,Tabla_Region,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C16" s="8"/>
@@ -663,7 +675,7 @@
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="8" t="e">
-        <f>VLOOKUP(C17,Tabla_Region,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C17" s="8"/>
@@ -672,7 +684,7 @@
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="8" t="e">
-        <f>VLOOKUP(C18,Tabla_Region,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C18" s="8"/>
@@ -681,7 +693,7 @@
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="8" t="e">
-        <f>VLOOKUP(C19,Tabla_Region,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C19" s="8"/>
@@ -690,7 +702,7 @@
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="8" t="e">
-        <f>VLOOKUP(C20,Tabla_Region,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C20" s="8"/>
@@ -699,7 +711,7 @@
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="8" t="e">
-        <f>VLOOKUP(C21,Tabla_Region,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C21" s="8"/>
@@ -708,7 +720,7 @@
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="8" t="e">
-        <f>VLOOKUP(C22,Tabla_Region,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C22" s="8"/>
@@ -717,7 +729,7 @@
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="8" t="e">
-        <f>VLOOKUP(C23,Tabla_Region,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C23" s="8"/>
@@ -726,7 +738,7 @@
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="8" t="e">
-        <f>VLOOKUP(C24,Tabla_Region,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C24" s="8"/>
@@ -735,7 +747,7 @@
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="8" t="e">
-        <f>VLOOKUP(C25,Tabla_Region,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C25" s="8"/>
@@ -744,7 +756,7 @@
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="8" t="e">
-        <f>VLOOKUP(C26,Tabla_Region,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C26" s="8"/>
@@ -753,7 +765,7 @@
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="8" t="e">
-        <f>VLOOKUP(C27,Tabla_Region,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C27" s="8"/>
@@ -762,7 +774,7 @@
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="8" t="e">
-        <f>VLOOKUP(C28,Tabla_Region,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C28" s="8"/>
@@ -771,7 +783,7 @@
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="8" t="e">
-        <f>VLOOKUP(C29,Tabla_Region,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C29" s="8"/>
@@ -780,7 +792,7 @@
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="8" t="e">
-        <f>VLOOKUP(C30,Tabla_Region,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C30" s="8"/>
@@ -789,7 +801,7 @@
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="8" t="e">
-        <f>VLOOKUP(C31,Tabla_Region,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C31" s="8"/>
@@ -798,7 +810,7 @@
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="8" t="e">
-        <f>VLOOKUP(C32,Tabla_Region,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C32" s="8"/>
@@ -807,7 +819,7 @@
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="8" t="e">
-        <f>VLOOKUP(C33,Tabla_Region,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C33" s="8"/>
@@ -816,7 +828,7 @@
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="8" t="e">
-        <f>VLOOKUP(C34,Tabla_Region,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C34" s="8"/>
@@ -825,7 +837,7 @@
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="8" t="e">
-        <f>VLOOKUP(C35,Tabla_Region,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C35" s="8"/>
@@ -834,7 +846,7 @@
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="8" t="e">
-        <f>VLOOKUP(C36,Tabla_Region,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C36" s="8"/>
@@ -843,7 +855,7 @@
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="8" t="e">
-        <f>VLOOKUP(C37,Tabla_Region,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C37" s="8"/>
@@ -852,7 +864,7 @@
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="8" t="e">
-        <f>VLOOKUP(C38,Tabla_Region,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C38" s="8"/>
@@ -861,7 +873,7 @@
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="8" t="e">
-        <f>VLOOKUP(C39,Tabla_Region,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C39" s="8"/>
@@ -870,7 +882,7 @@
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="8" t="e">
-        <f>VLOOKUP(C40,Tabla_Region,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C40" s="8"/>
@@ -879,7 +891,7 @@
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="8" t="e">
-        <f>VLOOKUP(C41,Tabla_Region,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C41" s="8"/>
@@ -888,7 +900,7 @@
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="8" t="e">
-        <f>VLOOKUP(C42,Tabla_Region,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C42" s="8"/>
@@ -897,7 +909,7 @@
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="8" t="e">
-        <f>VLOOKUP(C43,Tabla_Region,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C43" s="8"/>
@@ -906,7 +918,7 @@
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="8" t="e">
-        <f>VLOOKUP(C44,Tabla_Region,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C44" s="8"/>
@@ -915,7 +927,7 @@
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="8" t="e">
-        <f>VLOOKUP(C45,Tabla_Region,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C45" s="8"/>
@@ -924,7 +936,7 @@
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="8" t="e">
-        <f>VLOOKUP(C46,Tabla_Region,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C46" s="8"/>
@@ -933,7 +945,7 @@
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="8" t="e">
-        <f>VLOOKUP(C47,Tabla_Region,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C47" s="8"/>
@@ -942,7 +954,7 @@
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="8" t="e">
-        <f>VLOOKUP(C48,Tabla_Region,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C48" s="8"/>
@@ -951,7 +963,7 @@
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="8" t="e">
-        <f>VLOOKUP(C49,Tabla_Region,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C49" s="8"/>
@@ -960,7 +972,7 @@
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="8" t="e">
-        <f>VLOOKUP(C50,Tabla_Region,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C50" s="8"/>
@@ -969,7 +981,7 @@
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="8" t="e">
-        <f>VLOOKUP(C51,Tabla_Region,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C51" s="8"/>
@@ -978,7 +990,7 @@
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="8" t="e">
-        <f>VLOOKUP(C52,Tabla_Region,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C52" s="8"/>
@@ -987,7 +999,7 @@
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="8" t="e">
-        <f>VLOOKUP(C53,Tabla_Region,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C53" s="8"/>
@@ -996,7 +1008,7 @@
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="8" t="e">
-        <f>VLOOKUP(C54,Tabla_Region,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C54" s="8"/>
@@ -1005,7 +1017,7 @@
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
       <c r="B55" s="8" t="e">
-        <f>VLOOKUP(C55,Tabla_Region,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C55" s="8"/>
@@ -1014,7 +1026,7 @@
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="8" t="e">
-        <f>VLOOKUP(C56,Tabla_Region,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C56" s="8"/>
@@ -1023,7 +1035,7 @@
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="8" t="e">
-        <f>VLOOKUP(C57,Tabla_Region,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C57" s="8"/>
@@ -1032,7 +1044,7 @@
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="8" t="e">
-        <f>VLOOKUP(C58,Tabla_Region,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C58" s="8"/>
@@ -1041,7 +1053,7 @@
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
       <c r="B59" s="8" t="e">
-        <f>VLOOKUP(C59,Tabla_Region,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C59" s="8"/>
@@ -1050,7 +1062,7 @@
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="8" t="e">
-        <f>VLOOKUP(C60,Tabla_Region,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C60" s="8"/>
@@ -1059,7 +1071,7 @@
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
       <c r="B61" s="8" t="e">
-        <f>VLOOKUP(C61,Tabla_Region,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C61" s="8"/>
@@ -1068,7 +1080,7 @@
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
       <c r="B62" s="8" t="e">
-        <f>VLOOKUP(C62,Tabla_Region,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C62" s="8"/>
@@ -1077,7 +1089,7 @@
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
       <c r="B63" s="8" t="e">
-        <f>VLOOKUP(C63,Tabla_Region,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C63" s="8"/>
@@ -1086,7 +1098,7 @@
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
       <c r="B64" s="8" t="e">
-        <f>VLOOKUP(C64,Tabla_Region,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C64" s="8"/>
@@ -1095,7 +1107,7 @@
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
       <c r="B65" s="8" t="e">
-        <f>VLOOKUP(C65,Tabla_Region,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C65" s="8"/>
@@ -1104,7 +1116,7 @@
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
       <c r="B66" s="8" t="e">
-        <f>VLOOKUP(C66,Tabla_Region,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C66" s="8"/>
@@ -1113,7 +1125,7 @@
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
       <c r="B67" s="8" t="e">
-        <f>VLOOKUP(C67,Tabla_Region,2,)</f>
+        <f t="shared" ref="B67:B130" si="1">VLOOKUP(C67,Tabla_Region,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="C67" s="8"/>
@@ -1122,7 +1134,7 @@
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="B68" s="8" t="e">
-        <f>VLOOKUP(C68,Tabla_Region,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C68" s="8"/>
@@ -1131,7 +1143,7 @@
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
       <c r="B69" s="8" t="e">
-        <f>VLOOKUP(C69,Tabla_Region,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C69" s="8"/>
@@ -1140,7 +1152,7 @@
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
       <c r="B70" s="8" t="e">
-        <f>VLOOKUP(C70,Tabla_Region,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C70" s="8"/>
@@ -1149,7 +1161,7 @@
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
       <c r="B71" s="8" t="e">
-        <f>VLOOKUP(C71,Tabla_Region,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C71" s="8"/>
@@ -1158,7 +1170,7 @@
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
       <c r="B72" s="8" t="e">
-        <f>VLOOKUP(C72,Tabla_Region,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C72" s="8"/>
@@ -1167,7 +1179,7 @@
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="B73" s="8" t="e">
-        <f>VLOOKUP(C73,Tabla_Region,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C73" s="8"/>
@@ -1176,7 +1188,7 @@
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="B74" s="8" t="e">
-        <f>VLOOKUP(C74,Tabla_Region,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C74" s="8"/>
@@ -1185,7 +1197,7 @@
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
       <c r="B75" s="8" t="e">
-        <f>VLOOKUP(C75,Tabla_Region,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C75" s="8"/>
@@ -1194,7 +1206,7 @@
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
       <c r="B76" s="8" t="e">
-        <f>VLOOKUP(C76,Tabla_Region,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C76" s="8"/>
@@ -1203,7 +1215,7 @@
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
       <c r="B77" s="8" t="e">
-        <f>VLOOKUP(C77,Tabla_Region,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C77" s="8"/>
@@ -1212,7 +1224,7 @@
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
       <c r="B78" s="8" t="e">
-        <f>VLOOKUP(C78,Tabla_Region,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C78" s="8"/>
@@ -1221,7 +1233,7 @@
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
       <c r="B79" s="8" t="e">
-        <f>VLOOKUP(C79,Tabla_Region,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C79" s="8"/>
@@ -1230,7 +1242,7 @@
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
       <c r="B80" s="8" t="e">
-        <f>VLOOKUP(C80,Tabla_Region,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C80" s="8"/>
@@ -1239,7 +1251,7 @@
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
       <c r="B81" s="8" t="e">
-        <f>VLOOKUP(C81,Tabla_Region,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C81" s="8"/>
@@ -1248,7 +1260,7 @@
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="8"/>
       <c r="B82" s="8" t="e">
-        <f>VLOOKUP(C82,Tabla_Region,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C82" s="8"/>
@@ -1257,7 +1269,7 @@
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="8"/>
       <c r="B83" s="8" t="e">
-        <f>VLOOKUP(C83,Tabla_Region,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C83" s="8"/>
@@ -1266,7 +1278,7 @@
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
       <c r="B84" s="8" t="e">
-        <f>VLOOKUP(C84,Tabla_Region,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C84" s="8"/>
@@ -1275,7 +1287,7 @@
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="8"/>
       <c r="B85" s="8" t="e">
-        <f>VLOOKUP(C85,Tabla_Region,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C85" s="8"/>
@@ -1284,7 +1296,7 @@
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="8"/>
       <c r="B86" s="8" t="e">
-        <f>VLOOKUP(C86,Tabla_Region,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C86" s="8"/>
@@ -1293,7 +1305,7 @@
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="8"/>
       <c r="B87" s="8" t="e">
-        <f>VLOOKUP(C87,Tabla_Region,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C87" s="8"/>
@@ -1302,7 +1314,7 @@
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="8"/>
       <c r="B88" s="8" t="e">
-        <f>VLOOKUP(C88,Tabla_Region,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C88" s="8"/>
@@ -1311,7 +1323,7 @@
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="8"/>
       <c r="B89" s="8" t="e">
-        <f>VLOOKUP(C89,Tabla_Region,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C89" s="8"/>
@@ -1320,7 +1332,7 @@
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="8"/>
       <c r="B90" s="8" t="e">
-        <f>VLOOKUP(C90,Tabla_Region,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C90" s="8"/>
@@ -1329,7 +1341,7 @@
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="8"/>
       <c r="B91" s="8" t="e">
-        <f>VLOOKUP(C91,Tabla_Region,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C91" s="8"/>
@@ -1338,7 +1350,7 @@
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="8"/>
       <c r="B92" s="8" t="e">
-        <f>VLOOKUP(C92,Tabla_Region,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C92" s="8"/>
@@ -1347,7 +1359,7 @@
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="8"/>
       <c r="B93" s="8" t="e">
-        <f>VLOOKUP(C93,Tabla_Region,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C93" s="8"/>
@@ -1356,7 +1368,7 @@
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="8"/>
       <c r="B94" s="8" t="e">
-        <f>VLOOKUP(C94,Tabla_Region,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C94" s="8"/>
@@ -1365,7 +1377,7 @@
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="8"/>
       <c r="B95" s="8" t="e">
-        <f>VLOOKUP(C95,Tabla_Region,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C95" s="8"/>
@@ -1374,7 +1386,7 @@
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="8"/>
       <c r="B96" s="8" t="e">
-        <f>VLOOKUP(C96,Tabla_Region,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C96" s="8"/>
@@ -1383,7 +1395,7 @@
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="8"/>
       <c r="B97" s="8" t="e">
-        <f>VLOOKUP(C97,Tabla_Region,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C97" s="8"/>
@@ -1392,7 +1404,7 @@
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="8"/>
       <c r="B98" s="8" t="e">
-        <f>VLOOKUP(C98,Tabla_Region,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C98" s="8"/>
@@ -1401,7 +1413,7 @@
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="8"/>
       <c r="B99" s="8" t="e">
-        <f>VLOOKUP(C99,Tabla_Region,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C99" s="8"/>
@@ -1410,7 +1422,7 @@
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="8"/>
       <c r="B100" s="8" t="e">
-        <f>VLOOKUP(C100,Tabla_Region,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C100" s="8"/>
@@ -1419,7 +1431,7 @@
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="8"/>
       <c r="B101" s="8" t="e">
-        <f>VLOOKUP(C101,Tabla_Region,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C101" s="8"/>
@@ -1428,7 +1440,7 @@
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="8"/>
       <c r="B102" s="8" t="e">
-        <f>VLOOKUP(C102,Tabla_Region,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C102" s="8"/>
@@ -1437,7 +1449,7 @@
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="8"/>
       <c r="B103" s="8" t="e">
-        <f>VLOOKUP(C103,Tabla_Region,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C103" s="8"/>
@@ -1446,7 +1458,7 @@
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="8"/>
       <c r="B104" s="8" t="e">
-        <f>VLOOKUP(C104,Tabla_Region,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C104" s="8"/>
@@ -1455,7 +1467,7 @@
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="8"/>
       <c r="B105" s="8" t="e">
-        <f>VLOOKUP(C105,Tabla_Region,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C105" s="8"/>
@@ -1464,7 +1476,7 @@
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="8"/>
       <c r="B106" s="8" t="e">
-        <f>VLOOKUP(C106,Tabla_Region,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C106" s="8"/>
@@ -1473,7 +1485,7 @@
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="8"/>
       <c r="B107" s="8" t="e">
-        <f>VLOOKUP(C107,Tabla_Region,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C107" s="8"/>
@@ -1482,7 +1494,7 @@
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="8"/>
       <c r="B108" s="8" t="e">
-        <f>VLOOKUP(C108,Tabla_Region,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C108" s="8"/>
@@ -1491,7 +1503,7 @@
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="8"/>
       <c r="B109" s="8" t="e">
-        <f>VLOOKUP(C109,Tabla_Region,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C109" s="8"/>
@@ -1500,7 +1512,7 @@
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="8"/>
       <c r="B110" s="8" t="e">
-        <f>VLOOKUP(C110,Tabla_Region,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C110" s="8"/>
@@ -1509,7 +1521,7 @@
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="8"/>
       <c r="B111" s="8" t="e">
-        <f>VLOOKUP(C111,Tabla_Region,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C111" s="8"/>
@@ -1518,7 +1530,7 @@
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="8"/>
       <c r="B112" s="8" t="e">
-        <f>VLOOKUP(C112,Tabla_Region,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C112" s="8"/>
@@ -1527,7 +1539,7 @@
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="8"/>
       <c r="B113" s="8" t="e">
-        <f>VLOOKUP(C113,Tabla_Region,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C113" s="8"/>
@@ -1536,7 +1548,7 @@
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="8"/>
       <c r="B114" s="8" t="e">
-        <f>VLOOKUP(C114,Tabla_Region,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C114" s="8"/>
@@ -1545,7 +1557,7 @@
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="8"/>
       <c r="B115" s="8" t="e">
-        <f>VLOOKUP(C115,Tabla_Region,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C115" s="8"/>
@@ -1554,7 +1566,7 @@
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="8"/>
       <c r="B116" s="8" t="e">
-        <f>VLOOKUP(C116,Tabla_Region,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C116" s="8"/>
@@ -1563,7 +1575,7 @@
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="8"/>
       <c r="B117" s="8" t="e">
-        <f>VLOOKUP(C117,Tabla_Region,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C117" s="8"/>
@@ -1572,7 +1584,7 @@
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="8"/>
       <c r="B118" s="8" t="e">
-        <f>VLOOKUP(C118,Tabla_Region,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C118" s="8"/>
@@ -1581,7 +1593,7 @@
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="8"/>
       <c r="B119" s="8" t="e">
-        <f>VLOOKUP(C119,Tabla_Region,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C119" s="8"/>
@@ -1590,7 +1602,7 @@
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="8"/>
       <c r="B120" s="8" t="e">
-        <f>VLOOKUP(C120,Tabla_Region,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C120" s="8"/>
@@ -1599,7 +1611,7 @@
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="8"/>
       <c r="B121" s="8" t="e">
-        <f>VLOOKUP(C121,Tabla_Region,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C121" s="8"/>
@@ -1608,7 +1620,7 @@
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="8"/>
       <c r="B122" s="8" t="e">
-        <f>VLOOKUP(C122,Tabla_Region,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C122" s="8"/>
@@ -1617,7 +1629,7 @@
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="8"/>
       <c r="B123" s="8" t="e">
-        <f>VLOOKUP(C123,Tabla_Region,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C123" s="8"/>
@@ -1626,7 +1638,7 @@
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="8"/>
       <c r="B124" s="8" t="e">
-        <f>VLOOKUP(C124,Tabla_Region,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C124" s="8"/>
@@ -1635,7 +1647,7 @@
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="8"/>
       <c r="B125" s="8" t="e">
-        <f>VLOOKUP(C125,Tabla_Region,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C125" s="8"/>
@@ -1644,7 +1656,7 @@
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="8"/>
       <c r="B126" s="8" t="e">
-        <f>VLOOKUP(C126,Tabla_Region,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C126" s="8"/>
@@ -1653,7 +1665,7 @@
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="8"/>
       <c r="B127" s="8" t="e">
-        <f>VLOOKUP(C127,Tabla_Region,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C127" s="8"/>
@@ -1662,7 +1674,7 @@
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="8"/>
       <c r="B128" s="8" t="e">
-        <f>VLOOKUP(C128,Tabla_Region,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C128" s="8"/>
@@ -1671,7 +1683,7 @@
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="8"/>
       <c r="B129" s="8" t="e">
-        <f>VLOOKUP(C129,Tabla_Region,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C129" s="8"/>
@@ -1680,7 +1692,7 @@
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="8"/>
       <c r="B130" s="8" t="e">
-        <f>VLOOKUP(C130,Tabla_Region,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C130" s="8"/>
@@ -1689,7 +1701,7 @@
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="8"/>
       <c r="B131" s="8" t="e">
-        <f>VLOOKUP(C131,Tabla_Region,2,)</f>
+        <f t="shared" ref="B131:B194" si="2">VLOOKUP(C131,Tabla_Region,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="C131" s="8"/>
@@ -1698,7 +1710,7 @@
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="8"/>
       <c r="B132" s="8" t="e">
-        <f>VLOOKUP(C132,Tabla_Region,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C132" s="8"/>
@@ -1707,7 +1719,7 @@
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="8"/>
       <c r="B133" s="8" t="e">
-        <f>VLOOKUP(C133,Tabla_Region,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C133" s="8"/>
@@ -1716,7 +1728,7 @@
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="8"/>
       <c r="B134" s="8" t="e">
-        <f>VLOOKUP(C134,Tabla_Region,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C134" s="8"/>
@@ -1725,7 +1737,7 @@
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="8"/>
       <c r="B135" s="8" t="e">
-        <f>VLOOKUP(C135,Tabla_Region,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C135" s="8"/>
@@ -1734,7 +1746,7 @@
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="8"/>
       <c r="B136" s="8" t="e">
-        <f>VLOOKUP(C136,Tabla_Region,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C136" s="8"/>
@@ -1743,7 +1755,7 @@
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="8"/>
       <c r="B137" s="8" t="e">
-        <f>VLOOKUP(C137,Tabla_Region,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C137" s="8"/>
@@ -1752,7 +1764,7 @@
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="8"/>
       <c r="B138" s="8" t="e">
-        <f>VLOOKUP(C138,Tabla_Region,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C138" s="8"/>
@@ -1761,7 +1773,7 @@
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="8"/>
       <c r="B139" s="8" t="e">
-        <f>VLOOKUP(C139,Tabla_Region,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C139" s="8"/>
@@ -1770,7 +1782,7 @@
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="8"/>
       <c r="B140" s="8" t="e">
-        <f>VLOOKUP(C140,Tabla_Region,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C140" s="8"/>
@@ -1779,7 +1791,7 @@
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="8"/>
       <c r="B141" s="8" t="e">
-        <f>VLOOKUP(C141,Tabla_Region,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C141" s="8"/>
@@ -1788,7 +1800,7 @@
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="8"/>
       <c r="B142" s="8" t="e">
-        <f>VLOOKUP(C142,Tabla_Region,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C142" s="8"/>
@@ -1797,7 +1809,7 @@
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="8"/>
       <c r="B143" s="8" t="e">
-        <f>VLOOKUP(C143,Tabla_Region,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C143" s="8"/>
@@ -1806,7 +1818,7 @@
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="8"/>
       <c r="B144" s="8" t="e">
-        <f>VLOOKUP(C144,Tabla_Region,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C144" s="8"/>
@@ -1815,7 +1827,7 @@
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="8"/>
       <c r="B145" s="8" t="e">
-        <f>VLOOKUP(C145,Tabla_Region,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C145" s="8"/>
@@ -1824,7 +1836,7 @@
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="8"/>
       <c r="B146" s="8" t="e">
-        <f>VLOOKUP(C146,Tabla_Region,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C146" s="8"/>
@@ -1833,7 +1845,7 @@
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="8"/>
       <c r="B147" s="8" t="e">
-        <f>VLOOKUP(C147,Tabla_Region,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C147" s="8"/>
@@ -1842,7 +1854,7 @@
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="8"/>
       <c r="B148" s="8" t="e">
-        <f>VLOOKUP(C148,Tabla_Region,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C148" s="8"/>
@@ -1851,7 +1863,7 @@
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="8"/>
       <c r="B149" s="8" t="e">
-        <f>VLOOKUP(C149,Tabla_Region,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C149" s="8"/>
@@ -1860,7 +1872,7 @@
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="8"/>
       <c r="B150" s="8" t="e">
-        <f>VLOOKUP(C150,Tabla_Region,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C150" s="8"/>
@@ -1869,7 +1881,7 @@
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="8"/>
       <c r="B151" s="8" t="e">
-        <f>VLOOKUP(C151,Tabla_Region,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C151" s="8"/>
@@ -1878,7 +1890,7 @@
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="8"/>
       <c r="B152" s="8" t="e">
-        <f>VLOOKUP(C152,Tabla_Region,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C152" s="8"/>
@@ -1887,7 +1899,7 @@
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="8"/>
       <c r="B153" s="8" t="e">
-        <f>VLOOKUP(C153,Tabla_Region,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C153" s="8"/>
@@ -1896,7 +1908,7 @@
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="8"/>
       <c r="B154" s="8" t="e">
-        <f>VLOOKUP(C154,Tabla_Region,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C154" s="8"/>
@@ -1905,7 +1917,7 @@
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="8"/>
       <c r="B155" s="8" t="e">
-        <f>VLOOKUP(C155,Tabla_Region,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C155" s="8"/>
@@ -1914,7 +1926,7 @@
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="8"/>
       <c r="B156" s="8" t="e">
-        <f>VLOOKUP(C156,Tabla_Region,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C156" s="8"/>
@@ -1923,7 +1935,7 @@
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="8"/>
       <c r="B157" s="8" t="e">
-        <f>VLOOKUP(C157,Tabla_Region,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C157" s="8"/>
@@ -1932,7 +1944,7 @@
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="8"/>
       <c r="B158" s="8" t="e">
-        <f>VLOOKUP(C158,Tabla_Region,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C158" s="8"/>
@@ -1941,7 +1953,7 @@
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="8"/>
       <c r="B159" s="8" t="e">
-        <f>VLOOKUP(C159,Tabla_Region,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C159" s="8"/>
@@ -1950,7 +1962,7 @@
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="8"/>
       <c r="B160" s="8" t="e">
-        <f>VLOOKUP(C160,Tabla_Region,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C160" s="8"/>
@@ -1959,7 +1971,7 @@
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="8"/>
       <c r="B161" s="8" t="e">
-        <f>VLOOKUP(C161,Tabla_Region,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C161" s="8"/>
@@ -1968,7 +1980,7 @@
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="8"/>
       <c r="B162" s="8" t="e">
-        <f>VLOOKUP(C162,Tabla_Region,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C162" s="8"/>
@@ -1977,7 +1989,7 @@
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="8"/>
       <c r="B163" s="8" t="e">
-        <f>VLOOKUP(C163,Tabla_Region,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C163" s="8"/>
@@ -1986,7 +1998,7 @@
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="8"/>
       <c r="B164" s="8" t="e">
-        <f>VLOOKUP(C164,Tabla_Region,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C164" s="8"/>
@@ -1995,7 +2007,7 @@
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="8"/>
       <c r="B165" s="8" t="e">
-        <f>VLOOKUP(C165,Tabla_Region,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C165" s="8"/>
@@ -2004,7 +2016,7 @@
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="8"/>
       <c r="B166" s="8" t="e">
-        <f>VLOOKUP(C166,Tabla_Region,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C166" s="8"/>
@@ -2013,7 +2025,7 @@
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="8"/>
       <c r="B167" s="8" t="e">
-        <f>VLOOKUP(C167,Tabla_Region,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C167" s="8"/>
@@ -2022,7 +2034,7 @@
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="8"/>
       <c r="B168" s="8" t="e">
-        <f>VLOOKUP(C168,Tabla_Region,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C168" s="8"/>
@@ -2031,7 +2043,7 @@
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="8"/>
       <c r="B169" s="8" t="e">
-        <f>VLOOKUP(C169,Tabla_Region,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C169" s="8"/>
@@ -2040,7 +2052,7 @@
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="8"/>
       <c r="B170" s="8" t="e">
-        <f>VLOOKUP(C170,Tabla_Region,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C170" s="8"/>
@@ -2049,7 +2061,7 @@
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="8"/>
       <c r="B171" s="8" t="e">
-        <f>VLOOKUP(C171,Tabla_Region,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C171" s="8"/>
@@ -2058,7 +2070,7 @@
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="8"/>
       <c r="B172" s="8" t="e">
-        <f>VLOOKUP(C172,Tabla_Region,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C172" s="8"/>
@@ -2067,7 +2079,7 @@
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="8"/>
       <c r="B173" s="8" t="e">
-        <f>VLOOKUP(C173,Tabla_Region,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C173" s="8"/>
@@ -2076,7 +2088,7 @@
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="8"/>
       <c r="B174" s="8" t="e">
-        <f>VLOOKUP(C174,Tabla_Region,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C174" s="8"/>
@@ -2085,7 +2097,7 @@
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="8"/>
       <c r="B175" s="8" t="e">
-        <f>VLOOKUP(C175,Tabla_Region,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C175" s="8"/>
@@ -2094,7 +2106,7 @@
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="8"/>
       <c r="B176" s="8" t="e">
-        <f>VLOOKUP(C176,Tabla_Region,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C176" s="8"/>
@@ -2103,7 +2115,7 @@
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="8"/>
       <c r="B177" s="8" t="e">
-        <f>VLOOKUP(C177,Tabla_Region,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C177" s="8"/>
@@ -2112,7 +2124,7 @@
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="8"/>
       <c r="B178" s="8" t="e">
-        <f>VLOOKUP(C178,Tabla_Region,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C178" s="8"/>
@@ -2121,7 +2133,7 @@
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="8"/>
       <c r="B179" s="8" t="e">
-        <f>VLOOKUP(C179,Tabla_Region,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C179" s="8"/>
@@ -2130,7 +2142,7 @@
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="8"/>
       <c r="B180" s="8" t="e">
-        <f>VLOOKUP(C180,Tabla_Region,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C180" s="8"/>
@@ -2139,7 +2151,7 @@
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="8"/>
       <c r="B181" s="8" t="e">
-        <f>VLOOKUP(C181,Tabla_Region,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C181" s="8"/>
@@ -2148,7 +2160,7 @@
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="8"/>
       <c r="B182" s="8" t="e">
-        <f>VLOOKUP(C182,Tabla_Region,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C182" s="8"/>
@@ -2157,7 +2169,7 @@
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="8"/>
       <c r="B183" s="8" t="e">
-        <f>VLOOKUP(C183,Tabla_Region,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C183" s="8"/>
@@ -2166,7 +2178,7 @@
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="8"/>
       <c r="B184" s="8" t="e">
-        <f>VLOOKUP(C184,Tabla_Region,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C184" s="8"/>
@@ -2175,7 +2187,7 @@
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="8"/>
       <c r="B185" s="8" t="e">
-        <f>VLOOKUP(C185,Tabla_Region,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C185" s="8"/>
@@ -2184,7 +2196,7 @@
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="8"/>
       <c r="B186" s="8" t="e">
-        <f>VLOOKUP(C186,Tabla_Region,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C186" s="8"/>
@@ -2193,7 +2205,7 @@
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="8"/>
       <c r="B187" s="8" t="e">
-        <f>VLOOKUP(C187,Tabla_Region,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C187" s="8"/>
@@ -2202,7 +2214,7 @@
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="8"/>
       <c r="B188" s="8" t="e">
-        <f>VLOOKUP(C188,Tabla_Region,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C188" s="8"/>
@@ -2211,7 +2223,7 @@
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="8"/>
       <c r="B189" s="8" t="e">
-        <f>VLOOKUP(C189,Tabla_Region,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C189" s="8"/>
@@ -2220,7 +2232,7 @@
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="8"/>
       <c r="B190" s="8" t="e">
-        <f>VLOOKUP(C190,Tabla_Region,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C190" s="8"/>
@@ -2229,7 +2241,7 @@
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="8"/>
       <c r="B191" s="8" t="e">
-        <f>VLOOKUP(C191,Tabla_Region,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C191" s="8"/>
@@ -2238,7 +2250,7 @@
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="8"/>
       <c r="B192" s="8" t="e">
-        <f>VLOOKUP(C192,Tabla_Region,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C192" s="8"/>
@@ -2247,7 +2259,7 @@
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="8"/>
       <c r="B193" s="8" t="e">
-        <f>VLOOKUP(C193,Tabla_Region,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C193" s="8"/>
@@ -2256,7 +2268,7 @@
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="8"/>
       <c r="B194" s="8" t="e">
-        <f>VLOOKUP(C194,Tabla_Region,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C194" s="8"/>
@@ -2265,7 +2277,7 @@
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="8"/>
       <c r="B195" s="8" t="e">
-        <f>VLOOKUP(C195,Tabla_Region,2,)</f>
+        <f t="shared" ref="B195:B258" si="3">VLOOKUP(C195,Tabla_Region,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="C195" s="8"/>
@@ -2274,7 +2286,7 @@
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="8"/>
       <c r="B196" s="8" t="e">
-        <f>VLOOKUP(C196,Tabla_Region,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C196" s="8"/>
@@ -2283,7 +2295,7 @@
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="8"/>
       <c r="B197" s="8" t="e">
-        <f>VLOOKUP(C197,Tabla_Region,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C197" s="8"/>
@@ -2292,7 +2304,7 @@
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="8"/>
       <c r="B198" s="8" t="e">
-        <f>VLOOKUP(C198,Tabla_Region,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C198" s="8"/>
@@ -2301,7 +2313,7 @@
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="8"/>
       <c r="B199" s="8" t="e">
-        <f>VLOOKUP(C199,Tabla_Region,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C199" s="8"/>
@@ -2310,7 +2322,7 @@
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="8"/>
       <c r="B200" s="8" t="e">
-        <f>VLOOKUP(C200,Tabla_Region,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C200" s="8"/>
@@ -2319,7 +2331,7 @@
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="8"/>
       <c r="B201" s="8" t="e">
-        <f>VLOOKUP(C201,Tabla_Region,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C201" s="8"/>
@@ -2328,7 +2340,7 @@
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="8"/>
       <c r="B202" s="8" t="e">
-        <f>VLOOKUP(C202,Tabla_Region,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C202" s="8"/>
@@ -2337,7 +2349,7 @@
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="8"/>
       <c r="B203" s="8" t="e">
-        <f>VLOOKUP(C203,Tabla_Region,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C203" s="8"/>
@@ -2346,7 +2358,7 @@
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="8"/>
       <c r="B204" s="8" t="e">
-        <f>VLOOKUP(C204,Tabla_Region,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C204" s="8"/>
@@ -2355,7 +2367,7 @@
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="8"/>
       <c r="B205" s="8" t="e">
-        <f>VLOOKUP(C205,Tabla_Region,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C205" s="8"/>
@@ -2364,7 +2376,7 @@
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="8"/>
       <c r="B206" s="8" t="e">
-        <f>VLOOKUP(C206,Tabla_Region,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C206" s="8"/>
@@ -2373,7 +2385,7 @@
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="8"/>
       <c r="B207" s="8" t="e">
-        <f>VLOOKUP(C207,Tabla_Region,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C207" s="8"/>
@@ -2382,7 +2394,7 @@
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="8"/>
       <c r="B208" s="8" t="e">
-        <f>VLOOKUP(C208,Tabla_Region,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C208" s="8"/>
@@ -2391,7 +2403,7 @@
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="8"/>
       <c r="B209" s="8" t="e">
-        <f>VLOOKUP(C209,Tabla_Region,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C209" s="8"/>
@@ -2400,7 +2412,7 @@
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="8"/>
       <c r="B210" s="8" t="e">
-        <f>VLOOKUP(C210,Tabla_Region,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C210" s="8"/>
@@ -2409,7 +2421,7 @@
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="8"/>
       <c r="B211" s="8" t="e">
-        <f>VLOOKUP(C211,Tabla_Region,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C211" s="8"/>
@@ -2418,7 +2430,7 @@
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="8"/>
       <c r="B212" s="8" t="e">
-        <f>VLOOKUP(C212,Tabla_Region,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C212" s="8"/>
@@ -2427,7 +2439,7 @@
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="8"/>
       <c r="B213" s="8" t="e">
-        <f>VLOOKUP(C213,Tabla_Region,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C213" s="8"/>
@@ -2436,7 +2448,7 @@
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="8"/>
       <c r="B214" s="8" t="e">
-        <f>VLOOKUP(C214,Tabla_Region,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C214" s="8"/>
@@ -2445,7 +2457,7 @@
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="8"/>
       <c r="B215" s="8" t="e">
-        <f>VLOOKUP(C215,Tabla_Region,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C215" s="8"/>
@@ -2454,7 +2466,7 @@
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="8"/>
       <c r="B216" s="8" t="e">
-        <f>VLOOKUP(C216,Tabla_Region,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C216" s="8"/>
@@ -2463,7 +2475,7 @@
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="8"/>
       <c r="B217" s="8" t="e">
-        <f>VLOOKUP(C217,Tabla_Region,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C217" s="8"/>
@@ -2472,7 +2484,7 @@
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="8"/>
       <c r="B218" s="8" t="e">
-        <f>VLOOKUP(C218,Tabla_Region,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C218" s="8"/>
@@ -2481,7 +2493,7 @@
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="8"/>
       <c r="B219" s="8" t="e">
-        <f>VLOOKUP(C219,Tabla_Region,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C219" s="8"/>
@@ -2490,7 +2502,7 @@
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="8"/>
       <c r="B220" s="8" t="e">
-        <f>VLOOKUP(C220,Tabla_Region,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C220" s="8"/>
@@ -2499,7 +2511,7 @@
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="8"/>
       <c r="B221" s="8" t="e">
-        <f>VLOOKUP(C221,Tabla_Region,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C221" s="8"/>
@@ -2508,7 +2520,7 @@
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="8"/>
       <c r="B222" s="8" t="e">
-        <f>VLOOKUP(C222,Tabla_Region,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C222" s="8"/>
@@ -2517,7 +2529,7 @@
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="8"/>
       <c r="B223" s="8" t="e">
-        <f>VLOOKUP(C223,Tabla_Region,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C223" s="8"/>
@@ -2526,7 +2538,7 @@
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="8"/>
       <c r="B224" s="8" t="e">
-        <f>VLOOKUP(C224,Tabla_Region,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C224" s="8"/>
@@ -2535,7 +2547,7 @@
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="8"/>
       <c r="B225" s="8" t="e">
-        <f>VLOOKUP(C225,Tabla_Region,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C225" s="8"/>
@@ -2544,7 +2556,7 @@
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="8"/>
       <c r="B226" s="8" t="e">
-        <f>VLOOKUP(C226,Tabla_Region,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C226" s="8"/>
@@ -2553,7 +2565,7 @@
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="8"/>
       <c r="B227" s="8" t="e">
-        <f>VLOOKUP(C227,Tabla_Region,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C227" s="8"/>
@@ -2562,7 +2574,7 @@
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="8"/>
       <c r="B228" s="8" t="e">
-        <f>VLOOKUP(C228,Tabla_Region,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C228" s="8"/>
@@ -2571,7 +2583,7 @@
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="8"/>
       <c r="B229" s="8" t="e">
-        <f>VLOOKUP(C229,Tabla_Region,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C229" s="8"/>
@@ -2580,7 +2592,7 @@
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="8"/>
       <c r="B230" s="8" t="e">
-        <f>VLOOKUP(C230,Tabla_Region,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C230" s="8"/>
@@ -2589,7 +2601,7 @@
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="8"/>
       <c r="B231" s="8" t="e">
-        <f>VLOOKUP(C231,Tabla_Region,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C231" s="8"/>
@@ -2598,7 +2610,7 @@
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="8"/>
       <c r="B232" s="8" t="e">
-        <f>VLOOKUP(C232,Tabla_Region,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C232" s="8"/>
@@ -2607,7 +2619,7 @@
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="8"/>
       <c r="B233" s="8" t="e">
-        <f>VLOOKUP(C233,Tabla_Region,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C233" s="8"/>
@@ -2616,7 +2628,7 @@
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="8"/>
       <c r="B234" s="8" t="e">
-        <f>VLOOKUP(C234,Tabla_Region,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C234" s="8"/>
@@ -2625,7 +2637,7 @@
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="8"/>
       <c r="B235" s="8" t="e">
-        <f>VLOOKUP(C235,Tabla_Region,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C235" s="8"/>
@@ -2634,7 +2646,7 @@
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="8"/>
       <c r="B236" s="8" t="e">
-        <f>VLOOKUP(C236,Tabla_Region,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C236" s="8"/>
@@ -2643,7 +2655,7 @@
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="8"/>
       <c r="B237" s="8" t="e">
-        <f>VLOOKUP(C237,Tabla_Region,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C237" s="8"/>
@@ -2652,7 +2664,7 @@
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="8"/>
       <c r="B238" s="8" t="e">
-        <f>VLOOKUP(C238,Tabla_Region,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C238" s="8"/>
@@ -2661,7 +2673,7 @@
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="8"/>
       <c r="B239" s="8" t="e">
-        <f>VLOOKUP(C239,Tabla_Region,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C239" s="8"/>
@@ -2670,7 +2682,7 @@
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="8"/>
       <c r="B240" s="8" t="e">
-        <f>VLOOKUP(C240,Tabla_Region,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C240" s="8"/>
@@ -2679,7 +2691,7 @@
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="8"/>
       <c r="B241" s="8" t="e">
-        <f>VLOOKUP(C241,Tabla_Region,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C241" s="8"/>
@@ -2688,7 +2700,7 @@
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="8"/>
       <c r="B242" s="8" t="e">
-        <f>VLOOKUP(C242,Tabla_Region,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C242" s="8"/>
@@ -2697,7 +2709,7 @@
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="8"/>
       <c r="B243" s="8" t="e">
-        <f>VLOOKUP(C243,Tabla_Region,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C243" s="8"/>
@@ -2706,7 +2718,7 @@
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="8"/>
       <c r="B244" s="8" t="e">
-        <f>VLOOKUP(C244,Tabla_Region,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C244" s="8"/>
@@ -2715,7 +2727,7 @@
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="8"/>
       <c r="B245" s="8" t="e">
-        <f>VLOOKUP(C245,Tabla_Region,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C245" s="8"/>
@@ -2724,7 +2736,7 @@
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="8"/>
       <c r="B246" s="8" t="e">
-        <f>VLOOKUP(C246,Tabla_Region,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C246" s="8"/>
@@ -2733,7 +2745,7 @@
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="8"/>
       <c r="B247" s="8" t="e">
-        <f>VLOOKUP(C247,Tabla_Region,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C247" s="8"/>
@@ -2742,7 +2754,7 @@
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="8"/>
       <c r="B248" s="8" t="e">
-        <f>VLOOKUP(C248,Tabla_Region,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C248" s="8"/>
@@ -2751,7 +2763,7 @@
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="8"/>
       <c r="B249" s="8" t="e">
-        <f>VLOOKUP(C249,Tabla_Region,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C249" s="8"/>
@@ -2760,7 +2772,7 @@
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="8"/>
       <c r="B250" s="8" t="e">
-        <f>VLOOKUP(C250,Tabla_Region,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C250" s="8"/>
@@ -2769,7 +2781,7 @@
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="8"/>
       <c r="B251" s="8" t="e">
-        <f>VLOOKUP(C251,Tabla_Region,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C251" s="8"/>
@@ -2778,7 +2790,7 @@
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="8"/>
       <c r="B252" s="8" t="e">
-        <f>VLOOKUP(C252,Tabla_Region,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C252" s="8"/>
@@ -2787,7 +2799,7 @@
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="8"/>
       <c r="B253" s="8" t="e">
-        <f>VLOOKUP(C253,Tabla_Region,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C253" s="8"/>
@@ -2796,7 +2808,7 @@
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="8"/>
       <c r="B254" s="8" t="e">
-        <f>VLOOKUP(C254,Tabla_Region,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C254" s="8"/>
@@ -2805,7 +2817,7 @@
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="8"/>
       <c r="B255" s="8" t="e">
-        <f>VLOOKUP(C255,Tabla_Region,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C255" s="8"/>
@@ -2814,7 +2826,7 @@
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="8"/>
       <c r="B256" s="8" t="e">
-        <f>VLOOKUP(C256,Tabla_Region,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C256" s="8"/>
@@ -2823,7 +2835,7 @@
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="8"/>
       <c r="B257" s="8" t="e">
-        <f>VLOOKUP(C257,Tabla_Region,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C257" s="8"/>
@@ -2832,7 +2844,7 @@
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="8"/>
       <c r="B258" s="8" t="e">
-        <f>VLOOKUP(C258,Tabla_Region,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C258" s="8"/>
@@ -2841,7 +2853,7 @@
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="8"/>
       <c r="B259" s="8" t="e">
-        <f>VLOOKUP(C259,Tabla_Region,2,)</f>
+        <f t="shared" ref="B259:B322" si="4">VLOOKUP(C259,Tabla_Region,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="C259" s="8"/>
@@ -2850,7 +2862,7 @@
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="8"/>
       <c r="B260" s="8" t="e">
-        <f>VLOOKUP(C260,Tabla_Region,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C260" s="8"/>
@@ -2859,7 +2871,7 @@
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="8"/>
       <c r="B261" s="8" t="e">
-        <f>VLOOKUP(C261,Tabla_Region,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C261" s="8"/>
@@ -2868,7 +2880,7 @@
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="8"/>
       <c r="B262" s="8" t="e">
-        <f>VLOOKUP(C262,Tabla_Region,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C262" s="8"/>
@@ -2877,7 +2889,7 @@
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="8"/>
       <c r="B263" s="8" t="e">
-        <f>VLOOKUP(C263,Tabla_Region,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C263" s="8"/>
@@ -2886,7 +2898,7 @@
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="8"/>
       <c r="B264" s="8" t="e">
-        <f>VLOOKUP(C264,Tabla_Region,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C264" s="8"/>
@@ -2895,7 +2907,7 @@
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="8"/>
       <c r="B265" s="8" t="e">
-        <f>VLOOKUP(C265,Tabla_Region,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C265" s="8"/>
@@ -2904,7 +2916,7 @@
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="8"/>
       <c r="B266" s="8" t="e">
-        <f>VLOOKUP(C266,Tabla_Region,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C266" s="8"/>
@@ -2913,7 +2925,7 @@
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="8"/>
       <c r="B267" s="8" t="e">
-        <f>VLOOKUP(C267,Tabla_Region,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C267" s="8"/>
@@ -2922,7 +2934,7 @@
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="8"/>
       <c r="B268" s="8" t="e">
-        <f>VLOOKUP(C268,Tabla_Region,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C268" s="8"/>
@@ -2931,7 +2943,7 @@
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="8"/>
       <c r="B269" s="8" t="e">
-        <f>VLOOKUP(C269,Tabla_Region,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C269" s="8"/>
@@ -2940,7 +2952,7 @@
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="8"/>
       <c r="B270" s="8" t="e">
-        <f>VLOOKUP(C270,Tabla_Region,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C270" s="8"/>
@@ -2949,7 +2961,7 @@
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="8"/>
       <c r="B271" s="8" t="e">
-        <f>VLOOKUP(C271,Tabla_Region,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C271" s="8"/>
@@ -2958,7 +2970,7 @@
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="8"/>
       <c r="B272" s="8" t="e">
-        <f>VLOOKUP(C272,Tabla_Region,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C272" s="8"/>
@@ -2967,7 +2979,7 @@
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="8"/>
       <c r="B273" s="8" t="e">
-        <f>VLOOKUP(C273,Tabla_Region,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C273" s="8"/>
@@ -2976,7 +2988,7 @@
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="8"/>
       <c r="B274" s="8" t="e">
-        <f>VLOOKUP(C274,Tabla_Region,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C274" s="8"/>
@@ -2985,7 +2997,7 @@
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="8"/>
       <c r="B275" s="8" t="e">
-        <f>VLOOKUP(C275,Tabla_Region,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C275" s="8"/>
@@ -2994,7 +3006,7 @@
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="8"/>
       <c r="B276" s="8" t="e">
-        <f>VLOOKUP(C276,Tabla_Region,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C276" s="8"/>
@@ -3003,7 +3015,7 @@
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="8"/>
       <c r="B277" s="8" t="e">
-        <f>VLOOKUP(C277,Tabla_Region,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C277" s="8"/>
@@ -3012,7 +3024,7 @@
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="8"/>
       <c r="B278" s="8" t="e">
-        <f>VLOOKUP(C278,Tabla_Region,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C278" s="8"/>
@@ -3021,7 +3033,7 @@
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="8"/>
       <c r="B279" s="8" t="e">
-        <f>VLOOKUP(C279,Tabla_Region,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C279" s="8"/>
@@ -3030,7 +3042,7 @@
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="8"/>
       <c r="B280" s="8" t="e">
-        <f>VLOOKUP(C280,Tabla_Region,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C280" s="8"/>
@@ -3039,7 +3051,7 @@
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="8"/>
       <c r="B281" s="8" t="e">
-        <f>VLOOKUP(C281,Tabla_Region,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C281" s="8"/>
@@ -3048,7 +3060,7 @@
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="8"/>
       <c r="B282" s="8" t="e">
-        <f>VLOOKUP(C282,Tabla_Region,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C282" s="8"/>
@@ -3057,7 +3069,7 @@
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="8"/>
       <c r="B283" s="8" t="e">
-        <f>VLOOKUP(C283,Tabla_Region,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C283" s="8"/>
@@ -3066,7 +3078,7 @@
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="8"/>
       <c r="B284" s="8" t="e">
-        <f>VLOOKUP(C284,Tabla_Region,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C284" s="8"/>
@@ -3075,7 +3087,7 @@
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="8"/>
       <c r="B285" s="8" t="e">
-        <f>VLOOKUP(C285,Tabla_Region,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C285" s="8"/>
@@ -3084,7 +3096,7 @@
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="8"/>
       <c r="B286" s="8" t="e">
-        <f>VLOOKUP(C286,Tabla_Region,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C286" s="8"/>
@@ -3093,7 +3105,7 @@
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="8"/>
       <c r="B287" s="8" t="e">
-        <f>VLOOKUP(C287,Tabla_Region,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C287" s="8"/>
@@ -3102,7 +3114,7 @@
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="8"/>
       <c r="B288" s="8" t="e">
-        <f>VLOOKUP(C288,Tabla_Region,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C288" s="8"/>
@@ -3111,7 +3123,7 @@
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="8"/>
       <c r="B289" s="8" t="e">
-        <f>VLOOKUP(C289,Tabla_Region,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C289" s="8"/>
@@ -3120,7 +3132,7 @@
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="8"/>
       <c r="B290" s="8" t="e">
-        <f>VLOOKUP(C290,Tabla_Region,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C290" s="8"/>
@@ -3129,7 +3141,7 @@
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="8"/>
       <c r="B291" s="8" t="e">
-        <f>VLOOKUP(C291,Tabla_Region,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C291" s="8"/>
@@ -3138,7 +3150,7 @@
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="8"/>
       <c r="B292" s="8" t="e">
-        <f>VLOOKUP(C292,Tabla_Region,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C292" s="8"/>
@@ -3147,7 +3159,7 @@
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="8"/>
       <c r="B293" s="8" t="e">
-        <f>VLOOKUP(C293,Tabla_Region,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C293" s="8"/>
@@ -3156,7 +3168,7 @@
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="8"/>
       <c r="B294" s="8" t="e">
-        <f>VLOOKUP(C294,Tabla_Region,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C294" s="8"/>
@@ -3165,7 +3177,7 @@
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="8"/>
       <c r="B295" s="8" t="e">
-        <f>VLOOKUP(C295,Tabla_Region,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C295" s="8"/>
@@ -3174,7 +3186,7 @@
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="8"/>
       <c r="B296" s="8" t="e">
-        <f>VLOOKUP(C296,Tabla_Region,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C296" s="8"/>
@@ -3183,7 +3195,7 @@
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="8"/>
       <c r="B297" s="8" t="e">
-        <f>VLOOKUP(C297,Tabla_Region,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C297" s="8"/>
@@ -3192,7 +3204,7 @@
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="8"/>
       <c r="B298" s="8" t="e">
-        <f>VLOOKUP(C298,Tabla_Region,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C298" s="8"/>
@@ -3201,7 +3213,7 @@
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="8"/>
       <c r="B299" s="8" t="e">
-        <f>VLOOKUP(C299,Tabla_Region,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C299" s="8"/>
@@ -3210,7 +3222,7 @@
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="8"/>
       <c r="B300" s="8" t="e">
-        <f>VLOOKUP(C300,Tabla_Region,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C300" s="8"/>
@@ -3219,7 +3231,7 @@
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="8"/>
       <c r="B301" s="8" t="e">
-        <f>VLOOKUP(C301,Tabla_Region,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C301" s="8"/>
@@ -3228,7 +3240,7 @@
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="8"/>
       <c r="B302" s="8" t="e">
-        <f>VLOOKUP(C302,Tabla_Region,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C302" s="8"/>
@@ -3237,7 +3249,7 @@
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="8"/>
       <c r="B303" s="8" t="e">
-        <f>VLOOKUP(C303,Tabla_Region,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C303" s="8"/>
@@ -3246,7 +3258,7 @@
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="8"/>
       <c r="B304" s="8" t="e">
-        <f>VLOOKUP(C304,Tabla_Region,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C304" s="8"/>
@@ -3255,7 +3267,7 @@
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="8"/>
       <c r="B305" s="8" t="e">
-        <f>VLOOKUP(C305,Tabla_Region,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C305" s="8"/>
@@ -3264,7 +3276,7 @@
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="8"/>
       <c r="B306" s="8" t="e">
-        <f>VLOOKUP(C306,Tabla_Region,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C306" s="8"/>
@@ -3273,7 +3285,7 @@
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="8"/>
       <c r="B307" s="8" t="e">
-        <f>VLOOKUP(C307,Tabla_Region,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C307" s="8"/>
@@ -3282,7 +3294,7 @@
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="8"/>
       <c r="B308" s="8" t="e">
-        <f>VLOOKUP(C308,Tabla_Region,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C308" s="8"/>
@@ -3291,7 +3303,7 @@
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="8"/>
       <c r="B309" s="8" t="e">
-        <f>VLOOKUP(C309,Tabla_Region,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C309" s="8"/>
@@ -3300,7 +3312,7 @@
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="8"/>
       <c r="B310" s="8" t="e">
-        <f>VLOOKUP(C310,Tabla_Region,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C310" s="8"/>
@@ -3309,7 +3321,7 @@
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="8"/>
       <c r="B311" s="8" t="e">
-        <f>VLOOKUP(C311,Tabla_Region,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C311" s="8"/>

--- a/back-end/Web Dinamico 2/MRVMinem/bin/Documentos/2.1 Plantilla Coccion limpia_vales_fise.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/bin/Documentos/2.1 Plantilla Coccion limpia_vales_fise.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Downloads\Para MASIVOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Gitsource\back-end\Web Dinamico 2\MRVMinem\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BE20B3-010B-406C-970D-CBA3C7E86B25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004CDC3D-4B7F-488E-8C31-FA37BEB63B8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{F56E1F52-1E14-4181-8712-FB887E55F8AC}"/>
   </bookViews>
@@ -485,7 +485,7 @@
   <dimension ref="A1:D311"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2853,7 +2853,7 @@
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="8"/>
       <c r="B259" s="8" t="e">
-        <f t="shared" ref="B259:B322" si="4">VLOOKUP(C259,Tabla_Region,2,)</f>
+        <f t="shared" ref="B259:B311" si="4">VLOOKUP(C259,Tabla_Region,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="C259" s="8"/>
@@ -3328,7 +3328,7 @@
       <c r="D311" s="9"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="v+hvYUOiSaCrvXWSPeuSJUagFluZhUuu6Wph7nONXpyJz2ROXSDDNXvJkKObb6MR1jMIySLOzEZyoKk7MtHiiA==" saltValue="I69IUNoaoiirCRqG66Onvg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="zVuHLdzKtGMTh1Ydl0kLVQJgxQMwrB+RgFV+LVbX3egnYAQxLKPRbhN8y7831Wlb6Tz28vTUkPEw37M+w7BNrA==" saltValue="Frv5GuHd4Fv1R18UXsW5wA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A311" xr:uid="{82D1C3C5-4866-43C2-9C9E-A19630BD4DD5}">
       <formula1>Lista_Anno</formula1>

--- a/back-end/Web Dinamico 2/MRVMinem/bin/Documentos/2.1 Plantilla Coccion limpia_vales_fise.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/bin/Documentos/2.1 Plantilla Coccion limpia_vales_fise.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Web Dinamico 2\MRVMinem\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D09DBDE7-FEB3-4442-94B5-CDA952DA67E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FCC7B7-E6DD-4188-8E29-C12E28DE9758}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{F56E1F52-1E14-4181-8712-FB887E55F8AC}"/>
   </bookViews>
@@ -36,42 +36,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Dell</author>
-  </authors>
-  <commentList>
-    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{2FB46396-B728-4E77-AB57-DD80EA4AB926}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Registrar sus datos según el ejemplo brindado. Borre estos datos y complete los suyos.</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Año</t>
   </si>
@@ -106,14 +72,17 @@
     <t>Número de vales FISE emitidos en el año. Inserte su dato.</t>
   </si>
   <si>
-    <t>Región donde fueron instaladas, según departamentos. Seleccione de la lista desplegable.</t>
+    <t>Registrar sus datos según el ejemplo brindado. Borre estos datos y complete los suyos.</t>
+  </si>
+  <si>
+    <t>Región donde fueron emitidos los vales, según departamentos. Seleccione de la lista desplegable.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,17 +107,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -177,7 +140,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -200,11 +163,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -234,6 +234,15 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -548,19 +557,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BE5BE69-3AC5-40E4-9158-919B9F110AFA}">
-  <dimension ref="A1:D311"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BE5BE69-3AC5-40E4-9158-919B9F110AFA}">
+  <dimension ref="A1:D312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" customWidth="1"/>
     <col min="2" max="2" width="17.140625" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -577,41 +586,40 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="14"/>
+    </row>
+    <row r="3" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="9" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
         <v>2012</v>
       </c>
-      <c r="B3" s="10">
-        <f t="shared" ref="B3:B66" si="0">VLOOKUP(C3,Tabla_Region,2,)</f>
+      <c r="B4" s="10">
+        <f t="shared" ref="B4:B67" si="0">VLOOKUP(C4,Tabla_Region,2,)</f>
         <v>1</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D4" s="11">
         <v>2141</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
@@ -1174,7 +1182,7 @@
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
       <c r="B67" s="6" t="e">
-        <f t="shared" ref="B67:B130" si="1">VLOOKUP(C67,Tabla_Region,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C67" s="6"/>
@@ -1183,7 +1191,7 @@
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="B68" s="6" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B68:B131" si="1">VLOOKUP(C68,Tabla_Region,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="C68" s="6"/>
@@ -1750,7 +1758,7 @@
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="6"/>
       <c r="B131" s="6" t="e">
-        <f t="shared" ref="B131:B194" si="2">VLOOKUP(C131,Tabla_Region,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="C131" s="6"/>
@@ -1759,7 +1767,7 @@
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="6"/>
       <c r="B132" s="6" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="B132:B195" si="2">VLOOKUP(C132,Tabla_Region,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="C132" s="6"/>
@@ -2326,7 +2334,7 @@
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="6"/>
       <c r="B195" s="6" t="e">
-        <f t="shared" ref="B195:B258" si="3">VLOOKUP(C195,Tabla_Region,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C195" s="6"/>
@@ -2335,7 +2343,7 @@
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="6"/>
       <c r="B196" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="B196:B259" si="3">VLOOKUP(C196,Tabla_Region,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="C196" s="6"/>
@@ -2902,7 +2910,7 @@
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="6"/>
       <c r="B259" s="6" t="e">
-        <f t="shared" ref="B259:B311" si="4">VLOOKUP(C259,Tabla_Region,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C259" s="6"/>
@@ -2911,7 +2919,7 @@
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="6"/>
       <c r="B260" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="B260:B312" si="4">VLOOKUP(C260,Tabla_Region,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="C260" s="6"/>
@@ -3376,27 +3384,38 @@
       <c r="C311" s="6"/>
       <c r="D311" s="7"/>
     </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A312" s="6"/>
+      <c r="B312" s="6" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C312" s="6"/>
+      <c r="D312" s="7"/>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="dwwk9RJ6ms+pi2Onv+rBfS6IwvYR6MyctiMs2Pcv4VN2aV6ktG69WAXBkQZgQyn20efHqgRUozFMro1ZeTl9Kw==" saltValue="yLAJwp7JEN7BCCoOKpMfxg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="6eT3B68EfFnTXoLYfU0sB3X3NVJ8hW1OwL1Hv2pXZN04sfoXNDyzBwOcBCwRYrp76CFTX3tAPP/5o9Scqj6ZBw==" saltValue="Jm6CiAGsOpDGetUhH0g0aQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <mergeCells count="1">
+    <mergeCell ref="A2:D2"/>
+  </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A311" xr:uid="{82D1C3C5-4866-43C2-9C9E-A19630BD4DD5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A312" xr:uid="{82D1C3C5-4866-43C2-9C9E-A19630BD4DD5}">
       <formula1>Lista_Anno</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C311" xr:uid="{C8EFE627-D8DF-46BF-9D51-6F5A25C7BC56}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C312" xr:uid="{C8EFE627-D8DF-46BF-9D51-6F5A25C7BC56}">
       <formula1>Lista_Region</formula1>
     </dataValidation>
-    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="D3 D5 D7 D9 D11 D13 D15 D17 D19 D21 D23 D25 D27 D29 D31 D33 D35 D37 D39 D41 D43 D45 D47 D49 D51 D53 D55 D57 D59 D61 D63 D65 D67 D69 D71 D73 D75 D77 D79 D81 D83 D85 D87 D89 D91 D93 D95 D97 D99 D101 D103 D105 D107 D109 D111 D113 D115 D117 D119 D121 D123 D125 D127 D129 D131 D133 D135 D137 D139 D141 D143 D145 D147 D149 D151 D153 D155 D157 D159 D161 D163 D165 D167 D169 D171 D173 D175 D177 D179 D181 D183 D185 D187 D189 D191 D193 D195 D197 D199 D201 D203 D205 D207 D209 D211 D213 D215 D217 D219 D221 D223 D225 D227 D229 D231 D233 D235 D237 D239 D241 D243 D245 D247 D249 D251 D253 D255 D257 D259 D261 D263 D265 D267 D269 D271 D273 D275 D277 D279 D281 D283 D285 D287 D289 D291 D293 D295 D297 D299 D301 D303 D305 D307 D309 D311" xr:uid="{87740212-E94F-4F6E-BBE9-11AADE1C9915}">
+    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="D4 D6 D8 D10 D12 D14 D16 D18 D20 D22 D24 D26 D28 D30 D32 D34 D36 D38 D40 D42 D44 D46 D48 D50 D52 D54 D56 D58 D60 D62 D64 D66 D68 D70 D72 D74 D76 D78 D80 D82 D84 D86 D88 D90 D92 D94 D96 D98 D100 D102 D104 D106 D108 D110 D112 D114 D116 D118 D120 D122 D124 D126 D128 D130 D132 D134 D136 D138 D140 D142 D144 D146 D148 D150 D152 D154 D156 D158 D160 D162 D164 D166 D168 D170 D172 D174 D176 D178 D180 D182 D184 D186 D188 D190 D192 D194 D196 D198 D200 D202 D204 D206 D208 D210 D212 D214 D216 D218 D220 D222 D224 D226 D228 D230 D232 D234 D236 D238 D240 D242 D244 D246 D248 D250 D252 D254 D256 D258 D260 D262 D264 D266 D268 D270 D272 D274 D276 D278 D280 D282 D284 D286 D288 D290 D292 D294 D296 D298 D300 D302 D304 D306 D308 D310 D312" xr:uid="{87740212-E94F-4F6E-BBE9-11AADE1C9915}">
       <formula1>0</formula1>
       <formula2>99999999999</formula2>
     </dataValidation>
-    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="D4 D6 D8 D10 D12 D14 D16 D18 D20 D22 D24 D26 D28 D30 D32 D34 D36 D38 D40 D42 D44 D46 D48 D50 D52 D54 D56 D58 D60 D62 D64 D66 D68 D70 D72 D74 D76 D78 D80 D82 D84 D86 D88 D90 D92 D94 D96 D98 D100 D102 D104 D106 D108 D110 D112 D114 D116 D118 D120 D122 D124 D126 D128 D130 D132 D134 D136 D138 D140 D142 D144 D146 D148 D150 D152 D154 D156 D158 D160 D162 D164 D166 D168 D170 D172 D174 D176 D178 D180 D182 D184 D186 D188 D190 D192 D194 D196 D198 D200 D202 D204 D206 D208 D210 D212 D214 D216 D218 D220 D222 D224 D226 D228 D230 D232 D234 D236 D238 D240 D242 D244 D246 D248 D250 D252 D254 D256 D258 D260 D262 D264 D266 D268 D270 D272 D274 D276 D278 D280 D282 D284 D286 D288 D290 D292 D294 D296 D298 D300 D302 D304 D306 D308 D310" xr:uid="{36BB37EC-E97C-4F2D-A7FF-3C2F61063688}">
+    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="D5 D7 D9 D11 D13 D15 D17 D19 D21 D23 D25 D27 D29 D31 D33 D35 D37 D39 D41 D43 D45 D47 D49 D51 D53 D55 D57 D59 D61 D63 D65 D67 D69 D71 D73 D75 D77 D79 D81 D83 D85 D87 D89 D91 D93 D95 D97 D99 D101 D103 D105 D107 D109 D111 D113 D115 D117 D119 D121 D123 D125 D127 D129 D131 D133 D135 D137 D139 D141 D143 D145 D147 D149 D151 D153 D155 D157 D159 D161 D163 D165 D167 D169 D171 D173 D175 D177 D179 D181 D183 D185 D187 D189 D191 D193 D195 D197 D199 D201 D203 D205 D207 D209 D211 D213 D215 D217 D219 D221 D223 D225 D227 D229 D231 D233 D235 D237 D239 D241 D243 D245 D247 D249 D251 D253 D255 D257 D259 D261 D263 D265 D267 D269 D271 D273 D275 D277 D279 D281 D283 D285 D287 D289 D291 D293 D295 D297 D299 D301 D303 D305 D307 D309 D311" xr:uid="{36BB37EC-E97C-4F2D-A7FF-3C2F61063688}">
       <formula1>0</formula1>
       <formula2>999999999999</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
